--- a/biology/Médecine/Bruit_cardiaque/Bruit_cardiaque.xlsx
+++ b/biology/Médecine/Bruit_cardiaque/Bruit_cardiaque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bruits cardiaques sont les bruits générés par le cœur qui bat et le flux sanguin qui le traverse. Plus précisément, les sons reflètent les turbulences créées lorsque les valves cardiaques se ferment. Lors de l'auscultation cardiaque, un examinateur peut utiliser un stéthoscope pour écouter ces sons uniques et distincts qui fournissent des données auditives importantes concernant l'état du cœur.
 Chez les adultes en bonne santé, il existe deux bruits cardiaques normaux qui se produisent en séquence à chaque battement cardiaque. Il s'agit du « premier bruit cardiaque » (B 1 ) et du « deuxième bruit cardiaque » (B 2 ), produits respectivement par la fermeture des différentes valves auriculo-ventriculaires et des valves aortiques et pulmonaires. En plus de ces sons normaux, une variété d'autres sons peuvent être présents, notamment des souffles cardiaques, des bruits fortuits et des rythmes de galop B 3 et B 4.
@@ -513,14 +525,11 @@
           <t>Bruits cardiaques primaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bruits cardiaques normaux sont associés à la fermeture des valvules cardiaques :
-Premier bruit cardiaque
-Le premier bruit cardiaque, ou B 1, est composé des composants M 1 (fermeture de la valvule mitrale) et T 1 (fermeture de la valvule tricuspide). Normalement, M 1 précède légèrement T 1. Elle est provoquée par la fermeture des valves auriculo-ventriculaires, c'est-à-dire tricuspide et mitrale (bicuspide), au début de la contraction ventriculaire, ou systole. Lorsque les ventricules commencent à se contracter, les muscles papillaires de chaque ventricule se contractent également. Les muscles papillaires sont attachés aux cuspides ou aux feuillets des valvules tricuspide et mitrale via les cordes tendineuses (cordes cardiaques). Lorsque les muscles papillaires se contractent, les cordes tendineuses se tendent et empêchent ainsi le reflux du sang vers l'environnement à basse pression des oreillettes. Les cordes tendineuses agissent un peu comme les cordes d'un parachute et permettent aux feuillets de la valvule de remonter légèrement dans les oreillettes, mais pas au point d'inverser les bords des cuspides et de permettre le reflux du sang. C'est la pression créée par la contraction ventriculaire qui ferme la valvule, et non les muscles papillaires eux-mêmes. La contraction du ventricule commence juste avant la fermeture des valves atrio-ventriculaires et avant l'ouverture des valvules semi-lunaires. La tension soudaine des cordes tendineuses et la compression des ventricules contre les valves aortique et pulmonaire fermées renvoient le sang vers les oreillettes, et les valve en forme de parachute captent l'afflux de sang dans leurs feuillets, provoquant la fermeture brusque de la valve. Le son B1 résulte d'une réverbération dans le sang associée au blocage soudain de l'inversion du débit par les valves. Le retard de T1 provoque encore plus que d'habitude la scission de S1 qui se fait entendre dans un bloc de branche droit[1].
-Second bruit cardiaque
-Le second bruit cardiaque, ou B 2, est composé des composants A 2 (fermeture de la valve aortique) et P 2 (fermeture de la valve pulmonaire). Normalement A 2 précède P 2 surtout pendant l'inspiration où un dédoublement  de B 2 peut être entendue. Elle est provoquée par la fermeture des valves aortique et pulmoanire à la fin de la systole ventriculaire et au début de la diastole . À mesure que le ventricule gauche se vide, sa pression tombe en dessous de la pression dans l'aorte. Le flux sanguin aortique s'inverse rapidement vers le ventricule gauche, attrapant les cuspides en forme de poche de la valvule aortique, et est arrêté par la fermeture de la valve aortique. De même, lorsque la pression dans le ventricule droit tombe en dessous de la pression dans l'artère pulmonaire, la valve pulmonaire se ferme. Le son B 2 résulte d'une réverbération dans le sang associée au blocage soudain de l'inversion du flux[1].
-La division de B2, également connue sous le nom de division physiologique, se produit normalement lors de l'inhalation car la diminution de la pression intrathoracique augmente le temps nécessaire pour que la pression pulmonaire dépasse celle de la pression ventriculaire droite. Un S2 largement divisé peut être associé à plusieurs affections cardiovasculaires différentes, et la division est parfois large et variable alors qu'elle est parfois large et fixe. La division large et variable se produit dans le bloc de branche droit, la sténose pulmonaire, l'hypertension pulmonaire et les communications interventriculaires. La division large et fixe de B2 se produit dans la communication interauriculaire. Le B2 pulmonaire (P2) sera accentué (P2 fort) en cas d'hypertension pulmonaire et d'embolie pulmonaire. B2 devient plus faible en cas de sténose aortique[1].
 </t>
         </is>
       </c>
@@ -546,21 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bruits cardiaques supplémentaires</t>
+          <t>Bruits cardiaques primaires</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bruits cardiaques supplémentaires, plus rares, forment des rythmes de galop et sont entendus dans des situations normales et anormales[1].
-Troisième bruit cardiaque
-Le troisième bruit cardiaque, ou B 3, est rarement entendu et est également appelé galop protodiastolique, galop ventriculaire [2].
-Il survient au début de la diastole après B2 et est de tonalité plus grave que B1 ou B2 car il n'est pas d'origine valvulaire. Le troisième bruit cardiaque est bénin chez les jeunes, chez certains athlètes entraînés et parfois pendant la grossesse, mais s'il réapparaît plus tard dans la vie, il peut signaler des problèmes cardiaques, tels qu'une défaillance du ventricule gauche comme dans l'insuffisance cardiaque congestive dilatée (ICC). On pense que S3 est causé par l’oscillation du sang entre les parois des ventricules initiée par le sang affluant des oreillettes. La raison pour laquelle le troisième bruit cardiaque ne se produit pas avant le tiers médian de la diastole est probablement due au fait qu'au début de la diastole, les ventricules ne sont pas suffisamment remplis pour créer suffisamment de tension pour la réverbération[1].
-Cela peut également être le résultat d’une tension des cordes tendineuses lors d’un remplissage et d’une expansion rapides du ventricule. En d’autres termes, un bruit cardiaque B3 indique une augmentation du volume de sang dans le ventricule. Un bruit cardiaque B3 est mieux entendu avec le côté cloche du stéthoscope (utilisé pour les sons de basse fréquence). Un B3 du côté gauche est mieux entendu en position de décubitus latéral gauche et au sommet du cœur, qui est normalement situé dans le 5ème espace intercostal gauche au niveau de la ligne médio-claviculaire. Un B3 du côté droit est mieux entendu au bord inférieur gauche du sternal. La façon de distinguer le B3 gauche du côté droit est d’observer si son intensité augmente avec l’inspiration ou l’expiration. Un B3 du côté droit augmentera à l’inspiration, tandis qu’un B3 du côté gauche augmentera à l’expiration[1].
-Le B3 peut être normal chez les patients jeunes mais est généralement pathologique au-delà de 40 ans. La cause la plus fréquente de S3 pathologique est l’insuffisance cardiaque congestive[1].
-Quatrième bruit cardiaque
-Le quatrième bruit cardiaque, ou B4 lorsqu'il est audible chez un adulte, est appelé galop présystolique ou galop auriculaire. Ce galop est produit par le bruit du sang poussé dans un ventricule raide ou hypertrophique par la contraction atriale[1].
-C'est le signe d'un état pathologique, généralement un ventricule gauche défaillant ou hypertrophique, comme dans l'hypertension systémique, le rétrécissement aortique sévère et la cardiomyopathie hypertrophique. Le son se produit juste après la contraction auriculaire en fin de diastole et immédiatement avant B1[2]. Il est mieux entendu au sommet du cœur avec le patient en position de décubitus latéral gauche et retenant sa respiration. La présence combinée de B3 et B4 est un quadruple galop. À des fréquences cardiaques rapides, S3 et S4 peuvent fusionner pour produire un galop de sommation.
-La contraction atriale doit être présente pour la production d'un B4. Il est absent dans la fibrillation auriculaire et dans d'autres rythmes dans lesquels la contraction atriale ne précède pas la contraction ventriculaire[1].
+          <t>Premier bruit cardiaque</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier bruit cardiaque, ou B 1, est composé des composants M 1 (fermeture de la valvule mitrale) et T 1 (fermeture de la valvule tricuspide). Normalement, M 1 précède légèrement T 1. Elle est provoquée par la fermeture des valves auriculo-ventriculaires, c'est-à-dire tricuspide et mitrale (bicuspide), au début de la contraction ventriculaire, ou systole. Lorsque les ventricules commencent à se contracter, les muscles papillaires de chaque ventricule se contractent également. Les muscles papillaires sont attachés aux cuspides ou aux feuillets des valvules tricuspide et mitrale via les cordes tendineuses (cordes cardiaques). Lorsque les muscles papillaires se contractent, les cordes tendineuses se tendent et empêchent ainsi le reflux du sang vers l'environnement à basse pression des oreillettes. Les cordes tendineuses agissent un peu comme les cordes d'un parachute et permettent aux feuillets de la valvule de remonter légèrement dans les oreillettes, mais pas au point d'inverser les bords des cuspides et de permettre le reflux du sang. C'est la pression créée par la contraction ventriculaire qui ferme la valvule, et non les muscles papillaires eux-mêmes. La contraction du ventricule commence juste avant la fermeture des valves atrio-ventriculaires et avant l'ouverture des valvules semi-lunaires. La tension soudaine des cordes tendineuses et la compression des ventricules contre les valves aortique et pulmonaire fermées renvoient le sang vers les oreillettes, et les valve en forme de parachute captent l'afflux de sang dans leurs feuillets, provoquant la fermeture brusque de la valve. Le son B1 résulte d'une réverbération dans le sang associée au blocage soudain de l'inversion du débit par les valves. Le retard de T1 provoque encore plus que d'habitude la scission de S1 qui se fait entendre dans un bloc de branche droit.
 </t>
         </is>
       </c>
@@ -586,12 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Souffles cardiaques</t>
+          <t>Bruits cardiaques primaires</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les souffles cardiaques sont produits à la suite d’un flux sanguin turbulent suffisamment fort pour produire un bruit audible.
+          <t>Second bruit cardiaque</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le second bruit cardiaque, ou B 2, est composé des composants A 2 (fermeture de la valve aortique) et P 2 (fermeture de la valve pulmonaire). Normalement A 2 précède P 2 surtout pendant l'inspiration où un dédoublement  de B 2 peut être entendue. Elle est provoquée par la fermeture des valves aortique et pulmoanire à la fin de la systole ventriculaire et au début de la diastole . À mesure que le ventricule gauche se vide, sa pression tombe en dessous de la pression dans l'aorte. Le flux sanguin aortique s'inverse rapidement vers le ventricule gauche, attrapant les cuspides en forme de poche de la valvule aortique, et est arrêté par la fermeture de la valve aortique. De même, lorsque la pression dans le ventricule droit tombe en dessous de la pression dans l'artère pulmonaire, la valve pulmonaire se ferme. Le son B 2 résulte d'une réverbération dans le sang associée au blocage soudain de l'inversion du flux.
+La division de B2, également connue sous le nom de division physiologique, se produit normalement lors de l'inhalation car la diminution de la pression intrathoracique augmente le temps nécessaire pour que la pression pulmonaire dépasse celle de la pression ventriculaire droite. Un S2 largement divisé peut être associé à plusieurs affections cardiovasculaires différentes, et la division est parfois large et variable alors qu'elle est parfois large et fixe. La division large et variable se produit dans le bloc de branche droit, la sténose pulmonaire, l'hypertension pulmonaire et les communications interventriculaires. La division large et fixe de B2 se produit dans la communication interauriculaire. Le B2 pulmonaire (P2) sera accentué (P2 fort) en cas d'hypertension pulmonaire et d'embolie pulmonaire. B2 devient plus faible en cas de sténose aortique.
 </t>
         </is>
       </c>
@@ -617,13 +630,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Autres sons anormaux</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les clics cardiaques sont des sons courts et aigus, présents notamment lors d'un prolapsus de la valve mitrale, témoignant de l'inversion de la concavité de cette dernière.
-Le frottement péricardique peut être entendu dans la péricardite, une inflammation du péricarde, le sac entourant le cœur. Il s'agit d'un son caractéristique de grattage, de craquement et d'aigu aigu émanant du frottement des deux couches de péricarde enflammé. C'est le bruit le plus fort de la systole, mais on peut souvent l'entendre au début et à la fin de la diastole. Cela dépend beaucoup de la position du corps et de la respiration et change d'heure en heure.
+          <t>Bruits cardiaques supplémentaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bruits cardiaques supplémentaires, plus rares, forment des rythmes de galop et sont entendus dans des situations normales et anormales.
 </t>
         </is>
       </c>
@@ -649,10 +663,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Bruits cardiaques supplémentaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Troisième bruit cardiaque</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le troisième bruit cardiaque, ou B 3, est rarement entendu et est également appelé galop protodiastolique, galop ventriculaire .
+Il survient au début de la diastole après B2 et est de tonalité plus grave que B1 ou B2 car il n'est pas d'origine valvulaire. Le troisième bruit cardiaque est bénin chez les jeunes, chez certains athlètes entraînés et parfois pendant la grossesse, mais s'il réapparaît plus tard dans la vie, il peut signaler des problèmes cardiaques, tels qu'une défaillance du ventricule gauche comme dans l'insuffisance cardiaque congestive dilatée (ICC). On pense que S3 est causé par l’oscillation du sang entre les parois des ventricules initiée par le sang affluant des oreillettes. La raison pour laquelle le troisième bruit cardiaque ne se produit pas avant le tiers médian de la diastole est probablement due au fait qu'au début de la diastole, les ventricules ne sont pas suffisamment remplis pour créer suffisamment de tension pour la réverbération.
+Cela peut également être le résultat d’une tension des cordes tendineuses lors d’un remplissage et d’une expansion rapides du ventricule. En d’autres termes, un bruit cardiaque B3 indique une augmentation du volume de sang dans le ventricule. Un bruit cardiaque B3 est mieux entendu avec le côté cloche du stéthoscope (utilisé pour les sons de basse fréquence). Un B3 du côté gauche est mieux entendu en position de décubitus latéral gauche et au sommet du cœur, qui est normalement situé dans le 5ème espace intercostal gauche au niveau de la ligne médio-claviculaire. Un B3 du côté droit est mieux entendu au bord inférieur gauche du sternal. La façon de distinguer le B3 gauche du côté droit est d’observer si son intensité augmente avec l’inspiration ou l’expiration. Un B3 du côté droit augmentera à l’inspiration, tandis qu’un B3 du côté gauche augmentera à l’expiration.
+Le B3 peut être normal chez les patients jeunes mais est généralement pathologique au-delà de 40 ans. La cause la plus fréquente de S3 pathologique est l’insuffisance cardiaque congestive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bruit_cardiaque</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruit_cardiaque</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bruits cardiaques supplémentaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Quatrième bruit cardiaque</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le quatrième bruit cardiaque, ou B4 lorsqu'il est audible chez un adulte, est appelé galop présystolique ou galop auriculaire. Ce galop est produit par le bruit du sang poussé dans un ventricule raide ou hypertrophique par la contraction atriale.
+C'est le signe d'un état pathologique, généralement un ventricule gauche défaillant ou hypertrophique, comme dans l'hypertension systémique, le rétrécissement aortique sévère et la cardiomyopathie hypertrophique. Le son se produit juste après la contraction auriculaire en fin de diastole et immédiatement avant B1. Il est mieux entendu au sommet du cœur avec le patient en position de décubitus latéral gauche et retenant sa respiration. La présence combinée de B3 et B4 est un quadruple galop. À des fréquences cardiaques rapides, S3 et S4 peuvent fusionner pour produire un galop de sommation.
+La contraction atriale doit être présente pour la production d'un B4. Il est absent dans la fibrillation auriculaire et dans d'autres rythmes dans lesquels la contraction atriale ne précède pas la contraction ventriculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bruit_cardiaque</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruit_cardiaque</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Souffles cardiaques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les souffles cardiaques sont produits à la suite d’un flux sanguin turbulent suffisamment fort pour produire un bruit audible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bruit_cardiaque</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruit_cardiaque</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Autres sons anormaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les clics cardiaques sont des sons courts et aigus, présents notamment lors d'un prolapsus de la valve mitrale, témoignant de l'inversion de la concavité de cette dernière.
+Le frottement péricardique peut être entendu dans la péricardite, une inflammation du péricarde, le sac entourant le cœur. Il s'agit d'un son caractéristique de grattage, de craquement et d'aigu aigu émanant du frottement des deux couches de péricarde enflammé. C'est le bruit le plus fort de la systole, mais on peut souvent l'entendre au début et à la fin de la diastole. Cela dépend beaucoup de la position du corps et de la respiration et change d'heure en heure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bruit_cardiaque</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruit_cardiaque</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Enregistrement des bruits cardiaques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, l'enregistrement pouvait être fait lors d'un phonocardiogramme permettant la transcription de l'auscultation sur une bande de paier.
 À l'aide de stéthoscopes électroniques, il est possible d'enregistrer les bruits cardiaques via une sortie directe vers un appareil d'enregistrement externe, tel qu'un ordinateur portable ou un enregistreur MP3. La même connexion peut être utilisée pour écouter l'auscultation précédemment enregistrée à travers les écouteurs du stéthoscope, permettant ainsi une étude plus détaillée des souffles et autres bruits cardiaques, pour des recherches générales ainsi que pour l'évaluation de l'état d'un patient particulier.
